--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>6.693881005048752e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.410605131648481e-12</v>
+        <v>6.693881005048752e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86090.7498791407</v>
+        <v>5988147.316215588</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86090.7498791407</v>
+        <v>5988147.316215588</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1493801383.144361</v>
+        <v>53232650.54378385</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14853.20850304173</v>
+        <v>1128818.223875834</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29437.92427905661</v>
+        <v>2223660.934063063</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>44100.79942775406</v>
+        <v>3318503.644250292</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>59736.95053534894</v>
+        <v>4344738.240634858</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>74702.58250578902</v>
+        <v>5438483.609926855</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89668.21447622908</v>
+        <v>6532228.979218854</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>104633.8464466692</v>
+        <v>7625974.348510844</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>119599.4784171092</v>
+        <v>8719719.717802834</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>135235.6295247041</v>
+        <v>9745954.314187391</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>150215.7140651247</v>
+        <v>10838717.42205007</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>165181.3460355648</v>
+        <v>11932462.79134206</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>180146.9780060049</v>
+        <v>13026208.16063405</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>195112.609976445</v>
+        <v>14119953.52992606</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>210092.6945168655</v>
+        <v>15212716.63778875</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>226683.5193231931</v>
+        <v>16116987.27522871</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>134</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>90</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
